--- a/test_case/TestCase.xlsx
+++ b/test_case/TestCase.xlsx
@@ -65,16 +65,18 @@
     <t>TC1</t>
   </si>
   <si>
-    <t>Получение смс кода восстановления доступа на новый номер</t>
-  </si>
-  <si>
-    <t>1. Войти на сайт с помощью формы забыли пароль                                                                                        2. Выбрать пункт войти с помощью номера телефона.                                                                                                                      3. В диалоговом окне ввести новый номер телефона и нажать кнопку "Получить код"</t>
-  </si>
-  <si>
-    <t>1. Появилось диалоговое окно со способами получения кода                                                                     2. Появилось диалоговое окно для ввода номера телефона                                                                                   3. На новый номер телефона приходит СМС с кодом</t>
-  </si>
-  <si>
-    <t>Быть зарегестрированным на сайте, изминить свой номер телефона на новый, разлогинится</t>
+    <t>Получение смс кода подтверждения доступа на новый номер</t>
+  </si>
+  <si>
+    <t>Быть зарегестрированным и авторизированным на сайте, зайти в настройки личного кабинета, управление профилем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Открыть форму изменеения телефона.
+     2. Ввести новый номер телефона нажать кнопку "Получить код".                                                                                                                      </t>
+  </si>
+  <si>
+    <t>1. Появилось диалоговое окно с возможностью ввода номера телефона и кнопкой  "Получить код".
+ 2. На новый номер телефона приходит СМС с кодом.</t>
   </si>
 </sst>
 </file>
@@ -288,6 +290,51 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,83 +344,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,7 +694,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+      <selection activeCell="M2" sqref="M2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,73 +703,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="4" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="12" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="7"/>
@@ -775,117 +777,117 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="24"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="A10" s="7"/>
@@ -893,55 +895,55 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="7"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="7"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -949,50 +951,50 @@
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="4" t="s">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="12" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="21" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1">
       <c r="A15" s="7"/>
@@ -1000,111 +1002,117 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L1:L19"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M14:Q19"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K19"/>
     <mergeCell ref="A2:E3"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E19"/>
     <mergeCell ref="F1:F19"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K19"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E9"/>
@@ -1112,12 +1120,6 @@
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E14"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="L1:L19"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M14:Q19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
